--- a/_static/global/HR.xlsx
+++ b/_static/global/HR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,333 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Numbers</t>
-  </si>
-  <si>
-    <t>meme1</t>
-  </si>
-  <si>
-    <t>meme2</t>
-  </si>
-  <si>
-    <t>meme3</t>
-  </si>
-  <si>
-    <t>meme4</t>
-  </si>
-  <si>
-    <t>meme5</t>
-  </si>
-  <si>
-    <t>meme6</t>
-  </si>
-  <si>
-    <t>meme7</t>
-  </si>
-  <si>
-    <t>meme8</t>
-  </si>
-  <si>
-    <t>meme9</t>
-  </si>
-  <si>
-    <t>meme10</t>
-  </si>
-  <si>
-    <t>meme11</t>
-  </si>
-  <si>
-    <t>meme12</t>
-  </si>
-  <si>
-    <t>meme13</t>
-  </si>
-  <si>
-    <t>meme14</t>
-  </si>
-  <si>
-    <t>meme15</t>
-  </si>
-  <si>
-    <t>meme16</t>
-  </si>
-  <si>
-    <t>meme17</t>
-  </si>
-  <si>
-    <t>meme18</t>
-  </si>
-  <si>
-    <t>meme19</t>
-  </si>
-  <si>
-    <t>meme20</t>
-  </si>
-  <si>
-    <t>meme21</t>
-  </si>
-  <si>
-    <t>meme22</t>
-  </si>
-  <si>
-    <t>meme23</t>
-  </si>
-  <si>
-    <t>meme24</t>
-  </si>
-  <si>
-    <t>meme25</t>
-  </si>
-  <si>
-    <t>meme26</t>
-  </si>
-  <si>
-    <t>meme27</t>
-  </si>
-  <si>
-    <t>meme28</t>
-  </si>
-  <si>
-    <t>meme29</t>
-  </si>
-  <si>
-    <t>meme30</t>
-  </si>
-  <si>
-    <t>meme31</t>
-  </si>
-  <si>
-    <t>meme32</t>
-  </si>
-  <si>
-    <t>meme33</t>
-  </si>
-  <si>
-    <t>meme34</t>
-  </si>
-  <si>
-    <t>meme35</t>
-  </si>
-  <si>
-    <t>meme36</t>
-  </si>
-  <si>
-    <t>meme37</t>
-  </si>
-  <si>
-    <t>meme38</t>
-  </si>
-  <si>
-    <t>meme39</t>
-  </si>
-  <si>
-    <t>meme40</t>
-  </si>
-  <si>
-    <t>meme41</t>
-  </si>
-  <si>
-    <t>meme42</t>
-  </si>
-  <si>
-    <t>meme43</t>
-  </si>
-  <si>
-    <t>meme44</t>
-  </si>
-  <si>
-    <t>meme45</t>
-  </si>
-  <si>
-    <t>meme46</t>
-  </si>
-  <si>
-    <t>meme47</t>
-  </si>
-  <si>
-    <t>meme48</t>
-  </si>
-  <si>
-    <t>meme49</t>
-  </si>
-  <si>
-    <t>meme50</t>
-  </si>
-  <si>
-    <t>meme51</t>
-  </si>
-  <si>
-    <t>meme52</t>
-  </si>
-  <si>
-    <t>meme53</t>
-  </si>
-  <si>
-    <t>meme54</t>
-  </si>
-  <si>
-    <t>meme55</t>
-  </si>
-  <si>
-    <t>meme56</t>
-  </si>
-  <si>
-    <t>meme57</t>
-  </si>
-  <si>
-    <t>meme58</t>
-  </si>
-  <si>
-    <t>meme59</t>
-  </si>
-  <si>
-    <t>meme60</t>
-  </si>
-  <si>
-    <t>meme61</t>
-  </si>
-  <si>
-    <t>meme62</t>
-  </si>
-  <si>
-    <t>meme63</t>
-  </si>
-  <si>
-    <t>meme64</t>
-  </si>
-  <si>
-    <t>meme65</t>
-  </si>
-  <si>
-    <t>meme66</t>
-  </si>
-  <si>
-    <t>meme67</t>
-  </si>
-  <si>
-    <t>meme68</t>
-  </si>
-  <si>
-    <t>meme69</t>
-  </si>
-  <si>
-    <t>meme70</t>
-  </si>
-  <si>
-    <t>meme71</t>
-  </si>
-  <si>
-    <t>meme72</t>
-  </si>
-  <si>
-    <t>meme73</t>
-  </si>
-  <si>
-    <t>meme74</t>
-  </si>
-  <si>
-    <t>meme75</t>
-  </si>
-  <si>
-    <t>meme76</t>
-  </si>
-  <si>
-    <t>meme77</t>
-  </si>
-  <si>
-    <t>meme78</t>
-  </si>
-  <si>
-    <t>meme79</t>
-  </si>
-  <si>
-    <t>meme80</t>
-  </si>
-  <si>
-    <t>meme81</t>
-  </si>
-  <si>
-    <t>meme82</t>
-  </si>
-  <si>
-    <t>meme83</t>
-  </si>
-  <si>
-    <t>meme84</t>
-  </si>
-  <si>
-    <t>meme85</t>
-  </si>
-  <si>
-    <t>meme86</t>
-  </si>
-  <si>
-    <t>meme87</t>
-  </si>
-  <si>
-    <t>meme88</t>
-  </si>
-  <si>
-    <t>meme89</t>
-  </si>
-  <si>
-    <t>meme90</t>
-  </si>
-  <si>
-    <t>meme91</t>
-  </si>
-  <si>
-    <t>meme92</t>
-  </si>
-  <si>
-    <t>meme93</t>
-  </si>
-  <si>
-    <t>meme94</t>
-  </si>
-  <si>
-    <t>meme95</t>
-  </si>
-  <si>
-    <t>meme96</t>
-  </si>
-  <si>
-    <t>meme97</t>
-  </si>
-  <si>
-    <t>meme98</t>
-  </si>
-  <si>
-    <t>meme99</t>
-  </si>
-  <si>
-    <t>meme100</t>
-  </si>
-  <si>
-    <t>meme101</t>
-  </si>
-  <si>
-    <t>meme102</t>
-  </si>
-  <si>
-    <t>meme103</t>
-  </si>
-  <si>
-    <t>meme104</t>
-  </si>
-  <si>
-    <t>meme105</t>
-  </si>
-  <si>
-    <t>meme106</t>
-  </si>
-  <si>
-    <t>meme107</t>
-  </si>
-  <si>
-    <t>meme108</t>
   </si>
   <si>
     <t>Likes</t>
@@ -353,18 +29,12 @@
   <si>
     <t>Dislikes</t>
   </si>
-  <si>
-    <t>high reward memes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(◕ᴗ◕✿)  </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,6 +46,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,8 +84,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -411,7 +99,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -753,223 +443,217 @@
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -980,491 +664,491 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>58</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="C26" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="B35" s="2">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>70</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>78</v>
+      </c>
+      <c r="C47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2">
-        <v>34</v>
-      </c>
-      <c r="C40" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="C48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>14</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="2">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>34</v>
-      </c>
-      <c r="C44" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>34</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2">
-        <v>34</v>
-      </c>
-      <c r="C46" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2">
-        <v>34</v>
-      </c>
-      <c r="C47" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2">
-        <v>34</v>
-      </c>
-      <c r="C48" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2">
-        <v>34</v>
-      </c>
-      <c r="C49" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2">
-        <v>33</v>
-      </c>
-      <c r="C50" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="C51" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>82</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>21</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
-        <v>33</v>
-      </c>
-      <c r="C51" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2">
-        <v>33</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2">
-        <v>33</v>
-      </c>
-      <c r="C53" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2">
-        <v>33</v>
-      </c>
       <c r="C54" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C58" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C61" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2">
@@ -1475,484 +1159,484 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C73" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C76" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C77" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C78" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C79" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C80" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C81" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C84" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" t="s">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C85" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" t="s">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" t="s">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" t="s">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C88" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" t="s">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C89" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C90" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C91" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C93" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" t="s">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C94" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C95" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C96" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" t="s">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C98" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C99" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" t="s">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C100" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" t="s">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C101" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" t="s">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" t="s">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" t="s">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C104" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C106" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" t="s">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C108" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" t="s">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C109" s="2">
         <v>11</v>
@@ -1960,6 +1644,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/_static/global/HR.xlsx
+++ b/_static/global/HR.xlsx
@@ -94,8 +94,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -113,11 +117,15 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,7 +458,7 @@
   <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -511,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -698,10 +706,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1175,28 +1183,6 @@
       </c>
       <c r="C65" s="3">
         <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3">
-        <v>29</v>
-      </c>
-      <c r="C66" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3">
-        <v>34</v>
-      </c>
-      <c r="C67" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3">
